--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="478">
   <si>
     <t>Key</t>
   </si>
@@ -548,6 +548,66 @@
     <t>[13] N. C. Luong et al., “Applications of deep reinforcement learning in communications and networking: A survey,” IEEE Commun. Surveys Tuts., to be published. [Online]. Available: https://arxiv.org/pdf/1810.07862.pdf</t>
   </si>
   <si>
+    <t>Guo2023</t>
+  </si>
+  <si>
+    <t>Intelligent Task Offloading and Resource Allocation in Digital Twin Based Aerial Computing Networks</t>
+  </si>
+  <si>
+    <t>Guo, Hongzhi and Zhou, Xiaoyi and Wang, Jiadai and Liu, Jiajia and Benslimane, Abderrahim</t>
+  </si>
+  <si>
+    <t>China, France</t>
+  </si>
+  <si>
+    <t>China, Europe</t>
+  </si>
+  <si>
+    <t>Snowballing 2</t>
+  </si>
+  <si>
+    <t>Networks - Edge computing</t>
+  </si>
+  <si>
+    <t>intelligent task offloading</t>
+  </si>
+  <si>
+    <t>dynamic changes on the network make it particularly challenging to achieve global optimal resource allocation</t>
+  </si>
+  <si>
+    <t>not mentioned</t>
+  </si>
+  <si>
+    <t>network topology</t>
+  </si>
+  <si>
+    <t>DRL, DQN</t>
+  </si>
+  <si>
+    <t>virtual training environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to maintain the fidelity of the DT model, the central server updates the digital model at each time step with new data from real UAV real-time perception. </t>
+  </si>
+  <si>
+    <t>Jaensch2018</t>
+  </si>
+  <si>
+    <t>Digital Twins of Manufacturing Systems as a Base for Machine Learning</t>
+  </si>
+  <si>
+    <t>Jaensch, Florian and Csiszar, Akos and Scheifele, Christian and Verl, Alexander</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Snowballing</t>
+  </si>
+  <si>
+    <t>International Conference on Mechatronics and Machine Vision in Practice</t>
+  </si>
+  <si>
     <t>Hammar2023</t>
   </si>
   <si>
@@ -586,113 +646,41 @@
 36.J. Wu et al., "Digital twin-enabled reinforcement learning for end-to-end autonomous driving", 2021 IEEE 1st International Conference on Digital Twins and Parallel Intelligence (DTPI), pp. 62-65, 2021.</t>
   </si>
   <si>
-    <t>Jaensch2018</t>
-  </si>
-  <si>
-    <t>Digital Twins of Manufacturing Systems as a Base for Machine Learning</t>
-  </si>
-  <si>
-    <t>Jaensch, Florian and Csiszar, Akos and Scheifele, Christian and Verl, Alexander</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Snowballing</t>
-  </si>
-  <si>
-    <t>International Conference on Mechatronics and Machine Vision in Practice</t>
-  </si>
-  <si>
-    <t>LiYuxuan2023</t>
-  </si>
-  <si>
-    <t>Optimization of Broadcast Beams in Massive MIMO: Learning from A Digital Twin</t>
-  </si>
-  <si>
-    <t>Li, Yuxuan and Zhang, Cheng and Huang, Yongming and Zheng, Qingbi</t>
-  </si>
-  <si>
-    <t>QoS of MIMO</t>
-  </si>
-  <si>
-    <t>reduce the performance fluctuations of DRL in an extremely high action dimension setting</t>
-  </si>
-  <si>
-    <t>Inferred (implicit)</t>
-  </si>
-  <si>
-    <t>MA-DRL</t>
-  </si>
-  <si>
-    <t>virtual cost-effective training environment for RL</t>
-  </si>
-  <si>
-    <t>Detached (Temp) DT</t>
-  </si>
-  <si>
-    <t>Globecom Workshops (GC Wkshps): Intelligent 6G Architecture: towards network simplicity and autonomy</t>
-  </si>
-  <si>
-    <t>DT is a surrogate model: "During the initial exploration, we replace the real environ­ment with the DT,"
-Construction of DT: "data­driven approach to construct the DT", "A data set D is collected, then, a deep neural network (DNN) is trained to derive the mapping func­tion"</t>
-  </si>
-  <si>
-    <t>[8]  J. Deng, Q. Zheng, G. Liu, J. Bai, K. Tian, C. Sun, Y. Yan, and Y. Liu, “A Digital Twin Approach for Self­-optimization of Mobile Networks,” in 2021 IEEE Wireless Communications and Networking Conference Workshops (WCNCW). Nanjing, China: IEEE, Mar. 2021, pp. 1–6.</t>
-  </si>
-  <si>
-    <t>Matulis2021</t>
-  </si>
-  <si>
-    <t>A robot arm digital twin utilising reinforcement learning</t>
-  </si>
-  <si>
-    <t>Matulis, Marius and Harvey, Carlo</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Robotics and AVs</t>
-  </si>
-  <si>
-    <t>AI Training for Robot Arms</t>
-  </si>
-  <si>
-    <t>- Improve efficiency in industrial processes;
-- Ensure robot arms can adapt to changing environments in real-time
-- "A step towards fully autonomous industries"</t>
-  </si>
-  <si>
-    <t>RL paradigm/simulation learning paradigm</t>
-  </si>
-  <si>
-    <t>Deep RL with PPO</t>
-  </si>
-  <si>
-    <t>Continuously train and maintain a DRL policy (captured in a DNN)</t>
-  </si>
-  <si>
-    <t>-Reward formulation for the RL algorithm
--Difficulty in training for more complex, precise tasks without higher accuracy tracking
--Insufficient compute power slows down the training process, Complexity and number of tasks in a factory setting could inhibit real-time deployment
--Hardware Limitations: training conducted on a single, non-specialized PC, delay in communication between Arduino controller and Unity environment, and current tracking system lacks precision;
--Action-Space Simplification: action-space type is set to discrete;
--Trade-off: Balancing reward system to avoid artificial plateaus or over-focusing on specific rewards;</t>
-  </si>
-  <si>
-    <t>- "adjust hyper-parameters for the project needs and give a reasonable amount of time for training" [TODO: link with Kyanna's guided RL work]
-- next step in the field: "collaborative communication, two robots working together as complementary but independent agents to complete one task"</t>
-  </si>
-  <si>
-    <t>Computers &amp; Graphics</t>
-  </si>
-  <si>
-    <t>Elsevier</t>
-  </si>
-  <si>
-    <t>[7] Verner I , Cuperman D , Fang A , Reitman M , Romm T , Balikin G . Robot online learning through digital twin experiments: a weightlifting project. In: Auer ME, Zutin DG, editors. Online engineering &amp; Internet of Things. Cham: Springer International Publishing; 2018. p. 307–14. ISBN 978-3-319-64352-6 
-[9] Hassel T , Hofmann O . Reinforcement learning of robot behavior based on a digital twin. In: Marsico MD, di Baja GS, Fred ALN, editors. Proceedings of the 9th international conference on pattern recognition applications and methods, ICPRAM 2020. SCITEPRESS; 2020. ISBN 978-989-758-397-1</t>
+    <t>LiSiyuan2022</t>
+  </si>
+  <si>
+    <t>When digital twin meets deep reinforcement learning in multi-UAV path planning</t>
+  </si>
+  <si>
+    <t>Li, Siyuan and Lin, Xi and Wu, Jun and Bashir, Ali Kashif and Nawaz, Raheel</t>
+  </si>
+  <si>
+    <t>China, Japan, UK</t>
+  </si>
+  <si>
+    <t>China, Other, Europe</t>
+  </si>
+  <si>
+    <t>UAV Path Planning in Fifth-Generation Wireless Communications</t>
+  </si>
+  <si>
+    <t>-“the gap between simulation and reality greatly limits the application of deep reinforcement learning in the path planning problem of multi-UAV”
+-“Digital twin can build high-fidelity digital models and generate the same data as the actual process, which makes it easy for machine learning methods to obtain a large amount of real state data for model training”</t>
+  </si>
+  <si>
+    <t>Newtonian physics</t>
+  </si>
+  <si>
+    <t>“multiple copies of the digital models can run at the same time, which can generate more data for training”</t>
+  </si>
+  <si>
+    <t>the gap between simulation and reality greatly limits the application of deep reinforcement learning in the path planning problem of multi-UAV</t>
+  </si>
+  <si>
+    <t>International ACM Mobicom Workshop on Drone Assisted Wireless Communications for 5G and Beyond</t>
+  </si>
+  <si>
+    <t>ACM</t>
   </si>
   <si>
     <t>Neethirajan2021</t>
@@ -853,6 +841,124 @@
     </r>
   </si>
   <si>
+    <t>LiuTong2022</t>
+  </si>
+  <si>
+    <t>Digital-Twin-Assisted Task Offloading Based on Edge Collaboration in the Digital Twin Edge Network</t>
+  </si>
+  <si>
+    <t>Liu, Tong and Tang, Lun and Wang, Weili and Chen, Qianbin and Zeng, Xiaoping</t>
+  </si>
+  <si>
+    <t>Automated task offloading for collaborative edge computing</t>
+  </si>
+  <si>
+    <t>The number of collaborative nodes is constantly growing and AI helps managing this complexity, however, AI is hard to train</t>
+  </si>
+  <si>
+    <t>network model, topology</t>
+  </si>
+  <si>
+    <t>RL (DDQN)</t>
+  </si>
+  <si>
+    <t>DT acts as a virtual training environment</t>
+  </si>
+  <si>
+    <t>Internet of Things Journal</t>
+  </si>
+  <si>
+    <t>LiYuxuan2023</t>
+  </si>
+  <si>
+    <t>Optimization of Broadcast Beams in Massive MIMO: Learning from A Digital Twin</t>
+  </si>
+  <si>
+    <t>Li, Yuxuan and Zhang, Cheng and Huang, Yongming and Zheng, Qingbi</t>
+  </si>
+  <si>
+    <t>QoS of MIMO</t>
+  </si>
+  <si>
+    <t>reduce the performance fluctuations of DRL in an extremely high action dimension setting</t>
+  </si>
+  <si>
+    <t>Inferred (implicit)</t>
+  </si>
+  <si>
+    <t>MA-DRL</t>
+  </si>
+  <si>
+    <t>virtual cost-effective training environment for RL</t>
+  </si>
+  <si>
+    <t>Detached (Temp) DT</t>
+  </si>
+  <si>
+    <t>Globecom Workshops (GC Wkshps): Intelligent 6G Architecture: towards network simplicity and autonomy</t>
+  </si>
+  <si>
+    <t>DT is a surrogate model: "During the initial exploration, we replace the real environ­ment with the DT,"
+Construction of DT: "data­driven approach to construct the DT", "A data set D is collected, then, a deep neural network (DNN) is trained to derive the mapping func­tion"</t>
+  </si>
+  <si>
+    <t>[8]  J. Deng, Q. Zheng, G. Liu, J. Bai, K. Tian, C. Sun, Y. Yan, and Y. Liu, “A Digital Twin Approach for Self­-optimization of Mobile Networks,” in 2021 IEEE Wireless Communications and Networking Conference Workshops (WCNCW). Nanjing, China: IEEE, Mar. 2021, pp. 1–6.</t>
+  </si>
+  <si>
+    <t>Matulis2021</t>
+  </si>
+  <si>
+    <t>A robot arm digital twin utilising reinforcement learning</t>
+  </si>
+  <si>
+    <t>Matulis, Marius and Harvey, Carlo</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Robotics and AVs</t>
+  </si>
+  <si>
+    <t>AI Training for Robot Arms</t>
+  </si>
+  <si>
+    <t>- Improve efficiency in industrial processes;
+- Ensure robot arms can adapt to changing environments in real-time
+- "A step towards fully autonomous industries"</t>
+  </si>
+  <si>
+    <t>RL paradigm/simulation learning paradigm</t>
+  </si>
+  <si>
+    <t>Deep RL with PPO</t>
+  </si>
+  <si>
+    <t>Continuously train and maintain a DRL policy (captured in a DNN)</t>
+  </si>
+  <si>
+    <t>-Reward formulation for the RL algorithm
+-Difficulty in training for more complex, precise tasks without higher accuracy tracking
+-Insufficient compute power slows down the training process, Complexity and number of tasks in a factory setting could inhibit real-time deployment
+-Hardware Limitations: training conducted on a single, non-specialized PC, delay in communication between Arduino controller and Unity environment, and current tracking system lacks precision;
+-Action-Space Simplification: action-space type is set to discrete;
+-Trade-off: Balancing reward system to avoid artificial plateaus or over-focusing on specific rewards;</t>
+  </si>
+  <si>
+    <t>- "adjust hyper-parameters for the project needs and give a reasonable amount of time for training" [TODO: link with Kyanna's guided RL work]
+- next step in the field: "collaborative communication, two robots working together as complementary but independent agents to complete one task"</t>
+  </si>
+  <si>
+    <t>Computers &amp; Graphics</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[7] Verner I , Cuperman D , Fang A , Reitman M , Romm T , Balikin G . Robot online learning through digital twin experiments: a weightlifting project. In: Auer ME, Zutin DG, editors. Online engineering &amp; Internet of Things. Cham: Springer International Publishing; 2018. p. 307–14. ISBN 978-3-319-64352-6 
+[9] Hassel T , Hofmann O . Reinforcement learning of robot behavior based on a digital twin. In: Marsico MD, di Baja GS, Fred ALN, editors. Proceedings of the 9th international conference on pattern recognition applications and methods, ICPRAM 2020. SCITEPRESS; 2020. ISBN 978-989-758-397-1</t>
+  </si>
+  <si>
     <t>Pun2023</t>
   </si>
   <si>
@@ -872,6 +978,9 @@
   </si>
   <si>
     <t>improve the performance of image-based robot perception systems</t>
+  </si>
+  <si>
+    <t>Digital model</t>
   </si>
   <si>
     <t>GAN, DNN</t>
@@ -894,6 +1003,73 @@
     <t>Very much focused on AI and digital twinning is not really digital twinning in the sense we usually use</t>
   </si>
   <si>
+    <t>Zhou2021</t>
+  </si>
+  <si>
+    <t>A Dynamic Simulation Framework for Integrated Energy System</t>
+  </si>
+  <si>
+    <t>Zhou, Fan and Han, Zhongyang and Zhao, Jun and Wang, Wei</t>
+  </si>
+  <si>
+    <t>Energy System</t>
+  </si>
+  <si>
+    <t>Conference on Energy Internet and Energy System Integration</t>
+  </si>
+  <si>
+    <t>NO ANY AI/ML, should exclude</t>
+  </si>
+  <si>
+    <t>Hassel2020</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning of Robot Behavior based on a Digital Twin</t>
+  </si>
+  <si>
+    <t>Hassel, Tobias and Hofmann, Oliver</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enhancement of adaption of robot behavior</t>
+  </si>
+  <si>
+    <t>-Adapting robot behavior to frequently changing processes is time-consuming and error-prone in a physical environment;
+-Errors during reinforcement learning in a real industrial setting can result in damaged goods, equipment, and potential injuries.</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>RL,Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use Unity as a simulation environment (DT) and to transfer the resulting model(RL) to the real robot. </t>
+  </si>
+  <si>
+    <t>-Current model uses a discrete action space;
+-The training process could be more effective with better-adjusted hyperparameters;
+- The robot's camera frame rate (30 decisions per second) may be too high, causing trembling;
+- Reward is currently based on a single image.</t>
+  </si>
+  <si>
+    <t>- using a continuous action space for the model;
+- adjust hyperparameters;
+- reduce the decision frequency to improve stability and reduce trembling;
+- use a moving average of the center of gravity (COG) over several images to calculate rewards.</t>
+  </si>
+  <si>
+    <t>SCITEPRESS</t>
+  </si>
+  <si>
+    <t>Unclear what's happening in the training process. Very bad paper.</t>
+  </si>
+  <si>
+    <t>Unity, Tinkercad, Cozmo SDK</t>
+  </si>
+  <si>
     <t>Shen2022</t>
   </si>
   <si>
@@ -924,9 +1100,6 @@
   <si>
     <t>-difficulty of creating high-fidelity digital twins;
 -A basic assumption of the DT-enabled DRL training framework is that the update rate of the digital model and the computation resources are adequate (but acutally not?)</t>
-  </si>
-  <si>
-    <t>Internet of Things Journal</t>
   </si>
   <si>
     <t>-“the physical entity transmits the sensor data to the central server for digital model construction”
@@ -940,6 +1113,44 @@
     <t>[22] L. Lei, G. Shen, L. Zhang, and Z. Li, “Toward intelligent cooperation of UAV swarms: When machine learning meets digital twin,” IEEE Netw., vol. 35, no. 1, pp. 386–392, Jan./Feb. 2021.</t>
   </si>
   <si>
+    <t>Naeem2021</t>
+  </si>
+  <si>
+    <t>Digital Twin-empowered Network Slicing in B5G Networks: Experience-driven approach</t>
+  </si>
+  <si>
+    <t>Naeem, Faisal and Kaddoum, Georges and Tariq, Muhammad</t>
+  </si>
+  <si>
+    <t>Canada, Pakistan</t>
+  </si>
+  <si>
+    <t>North America, Other</t>
+  </si>
+  <si>
+    <t>Networking and Telecommunications</t>
+  </si>
+  <si>
+    <t>optimal network slicing in B5G networks</t>
+  </si>
+  <si>
+    <t>-Next-generation networks such as B5G will have highly mobile and complex environments where existing optimization techniques are unable to learn the optimal policy; 
+-B5G wireless networks will have unpredictable network topologies and highly mobile network characteristics, which challenge the use of RL to learn optimal resource allocation policies;
+-DT can optimize the overall network performance by enabling unified scheduling and real-time sensing of resources in dynamic B5G networks.</t>
+  </si>
+  <si>
+    <t>GNN; Distributed Deep-Q Network(DDQN)-DRL</t>
+  </si>
+  <si>
+    <t>“A GNN architecture is proposed that constructs a graph from the DT-network with deployed slices and develop a GraphSAGE framework [20] to construct a GNN model in a dynamic B5G network sliced environment.”</t>
+  </si>
+  <si>
+    <t>propose a DT-enabled DDQN network for optimal network slicing in B5G networks</t>
+  </si>
+  <si>
+    <t>Not a DT</t>
+  </si>
+  <si>
     <t>Shui2023</t>
   </si>
   <si>
@@ -974,261 +1185,25 @@
     <t>"The ICP utilizes the collected historical real CSI data to train the DT."</t>
   </si>
   <si>
-    <t>Vila2023</t>
-  </si>
-  <si>
-    <t>On the design of a network digital twin for the radio access network in 5G and beyond</t>
-  </si>
-  <si>
-    <t>Vila, Irene and Sallent, Oriol and Perez-Romero, Jordi</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>the complexity of 5G+ networks challenges the testing of configurations and algorithms</t>
-  </si>
-  <si>
-    <t>(cost-)efficiency in testing</t>
-  </si>
-  <si>
-    <t>Network Digital Twin</t>
-  </si>
-  <si>
-    <t>Manually built (explicit), Inferred (implicit)</t>
-  </si>
-  <si>
-    <t>scenario topology model, gNBs model, channel models, network models, UEs models</t>
-  </si>
-  <si>
-    <t>virtual training environment (states, rewards)</t>
-  </si>
-  <si>
-    <t>Sensors</t>
-  </si>
-  <si>
-    <t>"Network Digital Twin: a high-fidelity digital mirror of a real network"
-policy is deployed to the real network after a while to test IRL</t>
-  </si>
-  <si>
-    <t>- Deng, J.; Zheng, Q.; Liu, G.; Bai, J.; Tian, K.; Sun, C.; Yan, Y.; Liu, Y. A Digital Twin Approach for Self-optimization of Mobile Networks. In Proceedings of the 2021 IEEE Wireless Communications and Networking Conference Workshops (WCNCW), Nanjing, China, 29 March–1 April 2021.
-- Naeem, F.; Kaddoum, G.; Tariq, M. Digital Twin-empowered Network Slicing in B5G Networks: Experience-driven approach. In Proceedings of the 2021 IEEE Globecom Workshops (GC Wkshps), Madrid, Spain, 7–11 December 2021.</t>
-  </si>
-  <si>
-    <t>Zhou2021</t>
-  </si>
-  <si>
-    <t>A Dynamic Simulation Framework for Integrated Energy System</t>
-  </si>
-  <si>
-    <t>Zhou, Fan and Han, Zhongyang and Zhao, Jun and Wang, Wei</t>
-  </si>
-  <si>
-    <t>Energy System</t>
-  </si>
-  <si>
-    <t>Conference on Energy Internet and Energy System Integration</t>
-  </si>
-  <si>
-    <t>NO ANY AI/ML, should exclude</t>
-  </si>
-  <si>
-    <t>Hassel2020</t>
-  </si>
-  <si>
-    <t>Reinforcement Learning of Robot Behavior based on a Digital Twin</t>
-  </si>
-  <si>
-    <t>Hassel, Tobias and Hofmann, Oliver</t>
-  </si>
-  <si>
-    <t>Snowballing 2</t>
-  </si>
-  <si>
-    <t>manufacturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> enhancement of adaption of robot behavior</t>
-  </si>
-  <si>
-    <t>-Adapting robot behavior to frequently changing processes is time-consuming and error-prone in a physical environment;
--Errors during reinforcement learning in a real industrial setting can result in damaged goods, equipment, and potential injuries.</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>RL,Neural Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use Unity as a simulation environment (DT) and to transfer the resulting model(RL) to the real robot. </t>
-  </si>
-  <si>
-    <t>-Current model uses a discrete action space;
--The training process could be more effective with better-adjusted hyperparameters;
-- The robot's camera frame rate (30 decisions per second) may be too high, causing trembling;
-- Reward is currently based on a single image.</t>
-  </si>
-  <si>
-    <t>- using a continuous action space for the model;
-- adjust hyperparameters;
-- reduce the decision frequency to improve stability and reduce trembling;
-- use a moving average of the center of gravity (COG) over several images to calculate rewards.</t>
-  </si>
-  <si>
-    <t>Unclear what's happening in the training process. Very bad paper.</t>
-  </si>
-  <si>
-    <t>Unity, Tinkercad, Cozmo SDK</t>
-  </si>
-  <si>
-    <t>LiuTong2022</t>
-  </si>
-  <si>
-    <t>Digital-Twin-Assisted Task Offloading Based on Edge Collaboration in the Digital Twin Edge Network</t>
-  </si>
-  <si>
-    <t>Liu, Tong and Tang, Lun and Wang, Weili and Chen, Qianbin and Zeng, Xiaoping</t>
-  </si>
-  <si>
-    <t>Networks - Edge computing</t>
-  </si>
-  <si>
-    <t>Automated task offloading for collaborative edge computing</t>
-  </si>
-  <si>
-    <t>The number of collaborative nodes is constantly growing and AI helps managing this complexity, however, AI is hard to train</t>
-  </si>
-  <si>
-    <t>network model, topology</t>
-  </si>
-  <si>
-    <t>RL (DDQN)</t>
-  </si>
-  <si>
-    <t>DT acts as a virtual training environment</t>
-  </si>
-  <si>
-    <t>Naeem2021</t>
-  </si>
-  <si>
-    <t>Digital Twin-empowered Network Slicing in B5G Networks: Experience-driven approach</t>
-  </si>
-  <si>
-    <t>Naeem, Faisal and Kaddoum, Georges and Tariq, Muhammad</t>
-  </si>
-  <si>
-    <t>Canada, Pakistan</t>
-  </si>
-  <si>
-    <t>North America, Other</t>
-  </si>
-  <si>
-    <t>Networking and Telecommunications</t>
-  </si>
-  <si>
-    <t>optimal network slicing in B5G networks</t>
-  </si>
-  <si>
-    <t>-Next-generation networks such as B5G will have highly mobile and complex environments where existing optimization techniques are unable to learn the optimal policy; 
--B5G wireless networks will have unpredictable network topologies and highly mobile network characteristics, which challenge the use of RL to learn optimal resource allocation policies;
--DT can optimize the overall network performance by enabling unified scheduling and real-time sensing of resources in dynamic B5G networks.</t>
-  </si>
-  <si>
-    <t>GNN; Distributed Deep-Q Network(DDQN)-DRL</t>
-  </si>
-  <si>
-    <t>“A GNN architecture is proposed that constructs a graph from the DT-network with deployed slices and develop a GraphSAGE framework [20] to construct a GNN model in a dynamic B5G network sliced environment.”</t>
-  </si>
-  <si>
-    <t>propose a DT-enabled DDQN network for optimal network slicing in B5G networks</t>
-  </si>
-  <si>
-    <t>Not a DT</t>
-  </si>
-  <si>
-    <t>Verner2018</t>
-  </si>
-  <si>
-    <t>Robot Online Learning Through Digital Twin Experiments: A Weightlifting Project</t>
-  </si>
-  <si>
-    <t>Verner, Igor and Cuperman, Dan and Fang, Amy and Reitman, Michael and Romm, Tal and Balikin, Gali</t>
-  </si>
-  <si>
-    <t>Israel, US</t>
-  </si>
-  <si>
-    <t>Other, North America</t>
-  </si>
-  <si>
-    <t>Teaching Adaptive Robot Behaviors</t>
-  </si>
-  <si>
-    <t>-use RL: "main challenges is to reduce the experimentation time and the wear and tear on the robot"
--"performing robot trials in a virtual environment allows experimental data to be generated faster, more easily, and in any desired quantity, thus significantly speed-up the learning process"
---Exposing students to advanced concepts like machine learning, digital twins, and cloud robotics by engaging them in practical projects where robots learn new skills through reinforcement learning.</t>
-  </si>
-  <si>
-    <t>Human-supervised DT</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>The approach implements massive multi-parametric analysis (virtual testing) of weightlifting by the digital twin, batch offline simulation, to optimize reinforced learning of the physical robot.  
-- "for the weight of a given mass, test the balance of the virtual robot in its various postures over the range of possible bending angles at the hip, knee, and ankle joints. "</t>
-  </si>
-  <si>
-    <t>"In the next phase of the research, we will practically implement our approach in an outreach course and we anticipate that the evaluation of this experience will lead to the development of strategies for learning with learning robots."</t>
-  </si>
-  <si>
-    <t>Online Engineering &amp; Internet of Things</t>
-  </si>
-  <si>
-    <t>DT enpowered reinforcement learning scenario in which a humanoid robot learns to lift a weight of unknown mass through autonomous trial-and-error search</t>
-  </si>
-  <si>
-    <t>HSDT: "ThingWorx also receives and analyzes data from the simulator and sends recommendations for weightlifting posture to the robot upon request"
-- "When the physical robot has to lift a weight, it first measures the weight mass, and sends its value to the ThingWorx server. In response, the robot receives the values of the three angles suggested based on the simulation analysis. Then the robot executes the lifting using those values."</t>
-  </si>
-  <si>
-    <t>Xia2021</t>
-  </si>
-  <si>
-    <t>A digital twin to train deep reinforcement learning agent for smart manufacturing plants: Environment, interfaces and intelligence</t>
-  </si>
-  <si>
-    <t>Xia, Kaishu and Sacco, Christopher and Kirkpatrick, Max and Saidy, Clint and Nguyen, Lam and Kircaliali, Anil and Harik, Ramy</t>
-  </si>
-  <si>
-    <t>intelligent scheduler,Digital Engine</t>
-  </si>
-  <si>
-    <t>-“direct process quality measurements are often unavailable or rare.”
-- “there remains gaps in the applicability of currently available engineering tools towards smart manufacturing with data-driven controls. Risks such as discrepancy between virtual and physical manufacturing, or out-of-sync communications caused by hardware latency, can be significant sources of model non-convergence, which leads to isolated, fragmented and stagnant data management."</t>
-  </si>
-  <si>
-    <t>not mentioned</t>
-  </si>
-  <si>
-    <t>CAD, kinematics</t>
-  </si>
-  <si>
-    <t>DRL,TL,DQN</t>
-  </si>
-  <si>
-    <t>Generate data for DQN</t>
-  </si>
-  <si>
-    <t>Trade-off between exploration and exploitation in Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>-"focus on applying this methodology on more diverse manufacturing tasks and material flows in Stage 2 platform (Fig. 17a), including collaborative assembly jobs, visual inspection, optimized rework, and continuous movement tasks."
--"expand the research activities to develop a high-fidelity reference model and improve predictive capabilities of the digital twin. "</t>
-  </si>
-  <si>
-    <t>Journal of Manufacturing Systems</t>
+    <t>Tang2023</t>
+  </si>
+  <si>
+    <t>Digital-Twin-Assisted Task Assignment in Multi-UAV Systems: A Deep Reinforcement Learning Approach</t>
+  </si>
+  <si>
+    <t>Tang, Xin and Li, Xiaohuan and Yu, Rong and Wu, Yuan and Ye, Jin and Tang, Fengzhu and Chen, Qian</t>
+  </si>
+  <si>
+    <t>task assigment in a multi-UAV setting</t>
+  </si>
+  <si>
+    <t>ML is a key enabler in multi-UAV mission optimization, but ML methods are usually of heavy resource-consumption and cannot be directly deployed to a UAV</t>
+  </si>
+  <si>
+    <t>encoded in a DNN - position data, resource consumption, etc</t>
+  </si>
+  <si>
+    <t>remote training environment for the UAVs</t>
   </si>
   <si>
     <t>Gao2024</t>
@@ -1253,187 +1228,6 @@
   </si>
   <si>
     <t>a CSI-RS-based channel estimation procedure and PRS based delay estimation are carried out at the UE-end DT to generate positioning data for AI training.</t>
-  </si>
-  <si>
-    <t>Guo2023</t>
-  </si>
-  <si>
-    <t>Intelligent Task Offloading and Resource Allocation in Digital Twin Based Aerial Computing Networks</t>
-  </si>
-  <si>
-    <t>Guo, Hongzhi and Zhou, Xiaoyi and Wang, Jiadai and Liu, Jiajia and Benslimane, Abderrahim</t>
-  </si>
-  <si>
-    <t>China, France</t>
-  </si>
-  <si>
-    <t>China, Europe</t>
-  </si>
-  <si>
-    <t>intelligent task offloading</t>
-  </si>
-  <si>
-    <t>dynamic changes on the network make it particularly challenging to achieve global optimal resource allocation</t>
-  </si>
-  <si>
-    <t>network topology</t>
-  </si>
-  <si>
-    <t>DRL, DQN</t>
-  </si>
-  <si>
-    <t>virtual training environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In order to maintain the fidelity of the DT model, the central server updates the digital model at each time step with new data from real UAV real-time perception. </t>
-  </si>
-  <si>
-    <t>Hu2022</t>
-  </si>
-  <si>
-    <t>Digital Twins-based Multi-agent Deep Reinforcement Learning for UAV-assisted Vehicle Edge Computing</t>
-  </si>
-  <si>
-    <t>Hu, Chen and Qi, Qi and Zhang, Lei and Liu, Cong and Chen, Dezhi and Liao, Jianxin and Zhuang, Zirui and Wang, Jingyu</t>
-  </si>
-  <si>
-    <t>Intelligent Transportation Systems (ITS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAV-assisted vehicle-edge-computing (VEC) </t>
-  </si>
-  <si>
-    <t>-Drone-assisted vehicular edge computing has a highly dynamic network topology and is difficult to predict changes in network state compared to VECs that use fixed base stations as offload nodes;
--Digital twins can evaluate the performance of services in a virtual space, which is safer and more effective than evaluating them on real devices;
--Effectively reduce the average task latency of the system and improve the task completion rate; online training, improve the effectiveness of model training; reduce the risk of testing in the real world.</t>
-  </si>
-  <si>
-    <t>DT-based MADQN(DRL), DNN</t>
-  </si>
-  <si>
-    <t>-propose a DT-based MADQN method to learn the optimal strategies of different agents separately, and design a common reward incentive
--allows the DNN model to decouple valid information from the virtual twin for online training, which improves the effectiveness of model training</t>
-  </si>
-  <si>
-    <t>LiBin2023</t>
-  </si>
-  <si>
-    <t>Adaptive Digital Twin for UAV-Assisted Integrated Sensing, Communication, and Computation Networks</t>
-  </si>
-  <si>
-    <t>Li, Bin and Liu, Wenshuai and Xie, Wancheng and Zhang, Ning and Zhang, Yan</t>
-  </si>
-  <si>
-    <t>China, Canada, Norway</t>
-  </si>
-  <si>
-    <t>China, North America, Europe</t>
-  </si>
-  <si>
-    <t>Tang2023</t>
-  </si>
-  <si>
-    <t>Digital-Twin-Assisted Task Assignment in Multi-UAV Systems: A Deep Reinforcement Learning Approach</t>
-  </si>
-  <si>
-    <t>Tang, Xin and Li, Xiaohuan and Yu, Rong and Wu, Yuan and Ye, Jin and Tang, Fengzhu and Chen, Qian</t>
-  </si>
-  <si>
-    <t>task assigment in a multi-UAV setting</t>
-  </si>
-  <si>
-    <t>ML is a key enabler in multi-UAV mission optimization, but ML methods are usually of heavy resource-consumption and cannot be directly deployed to a UAV</t>
-  </si>
-  <si>
-    <t>encoded in a DNN - position data, resource consumption, etc</t>
-  </si>
-  <si>
-    <t>remote training environment for the UAVs</t>
-  </si>
-  <si>
-    <t>Yao2023</t>
-  </si>
-  <si>
-    <t>Cooperative Task Offloading and Service Caching for Digital Twin Edge Networks: A Graph Attention Multi-Agent Reinforcement Learning Approach</t>
-  </si>
-  <si>
-    <t>Yao, Zhixiu and Xia, Shichao and Li, Yun and Wu, Guangfu</t>
-  </si>
-  <si>
-    <t>Zhao2023</t>
-  </si>
-  <si>
-    <t>Cloud-Edge-Client Collaborative Learning in Digital Twin Empowered Mobile Networks</t>
-  </si>
-  <si>
-    <t>Zhao, Lindong and Ni, Shouxiang and Wu, Dan and Zhou, Liang</t>
-  </si>
-  <si>
-    <t>very bad paper</t>
-  </si>
-  <si>
-    <t>LiSiyuan2022</t>
-  </si>
-  <si>
-    <t>When digital twin meets deep reinforcement learning in multi-UAV path planning</t>
-  </si>
-  <si>
-    <t>Li, Siyuan and Lin, Xi and Wu, Jun and Bashir, Ali Kashif and Nawaz, Raheel</t>
-  </si>
-  <si>
-    <t>China, Japan, UK</t>
-  </si>
-  <si>
-    <t>China, Other, Europe</t>
-  </si>
-  <si>
-    <t>UAV Path Planning in Fifth-Generation Wireless Communications</t>
-  </si>
-  <si>
-    <t>-“the gap between simulation and reality greatly limits the application of deep reinforcement learning in the path planning problem of multi-UAV”
--“Digital twin can build high-fidelity digital models and generate the same data as the actual process, which makes it easy for machine learning methods to obtain a large amount of real state data for model training”</t>
-  </si>
-  <si>
-    <t>Newtonian physics</t>
-  </si>
-  <si>
-    <t>“multiple copies of the digital models can run at the same time, which can generate more data for training”</t>
-  </si>
-  <si>
-    <t>the gap between simulation and reality greatly limits the application of deep reinforcement learning in the path planning problem of multi-UAV</t>
-  </si>
-  <si>
-    <t>International ACM Mobicom Workshop on Drone Assisted Wireless Communications for 5G and Beyond</t>
-  </si>
-  <si>
-    <t>ACM</t>
-  </si>
-  <si>
-    <t>Mozo2022a</t>
-  </si>
-  <si>
-    <t>B5GEMINI: AI-Driven Network Digital Twin</t>
-  </si>
-  <si>
-    <t>Mozo, Alberto and Karamchandani, Amit and G\'{o}mez-Canaval, Sandra and Sanz, Mario and Moreno, Jose Ignacio and Pastor, Antonio</t>
-  </si>
-  <si>
-    <t>Mozo2022b</t>
-  </si>
-  <si>
-    <t>general network management in wireless settings</t>
-  </si>
-  <si>
-    <t>enable AI for the management of 5G+ networks in various scenarios</t>
-  </si>
-  <si>
-    <t>Network topology, resources, etc</t>
-  </si>
-  <si>
-    <t>synthetic data generation</t>
-  </si>
-  <si>
-    <t>This is just a big vision paper without actual implementation. I will never understand why people publish such shallow work and why editors allow this. Obviously, this is MDPI...</t>
   </si>
   <si>
     <t>Tubeuf2023</t>
@@ -1481,6 +1275,218 @@
   </si>
   <si>
     <t>Great paper for our purposes. This is essentially the same as Vila (and maybe Shui?), who also deploy their RL-trained control to the physical twin (see our figures in the paper), except here, the sim-to-real gap is handled explicitly and automatically. It might be the case the validation appears only at this stage of architectural complexity.</t>
+  </si>
+  <si>
+    <t>Hu2022</t>
+  </si>
+  <si>
+    <t>Digital Twins-based Multi-agent Deep Reinforcement Learning for UAV-assisted Vehicle Edge Computing</t>
+  </si>
+  <si>
+    <t>Hu, Chen and Qi, Qi and Zhang, Lei and Liu, Cong and Chen, Dezhi and Liao, Jianxin and Zhuang, Zirui and Wang, Jingyu</t>
+  </si>
+  <si>
+    <t>Intelligent Transportation Systems (ITS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAV-assisted vehicle-edge-computing (VEC) </t>
+  </si>
+  <si>
+    <t>-Drone-assisted vehicular edge computing has a highly dynamic network topology and is difficult to predict changes in network state compared to VECs that use fixed base stations as offload nodes;
+-Digital twins can evaluate the performance of services in a virtual space, which is safer and more effective than evaluating them on real devices;
+-Effectively reduce the average task latency of the system and improve the task completion rate; online training, improve the effectiveness of model training; reduce the risk of testing in the real world.</t>
+  </si>
+  <si>
+    <t>DT-based MADQN(DRL), DNN</t>
+  </si>
+  <si>
+    <t>-propose a DT-based MADQN method to learn the optimal strategies of different agents separately, and design a common reward incentive
+-allows the DNN model to decouple valid information from the virtual twin for online training, which improves the effectiveness of model training</t>
+  </si>
+  <si>
+    <t>LiBin2023</t>
+  </si>
+  <si>
+    <t>Adaptive Digital Twin for UAV-Assisted Integrated Sensing, Communication, and Computation Networks</t>
+  </si>
+  <si>
+    <t>Li, Bin and Liu, Wenshuai and Xie, Wancheng and Zhang, Ning and Zhang, Yan</t>
+  </si>
+  <si>
+    <t>China, Canada, Norway</t>
+  </si>
+  <si>
+    <t>China, North America, Europe</t>
+  </si>
+  <si>
+    <t>Verner2018</t>
+  </si>
+  <si>
+    <t>Robot Online Learning Through Digital Twin Experiments: A Weightlifting Project</t>
+  </si>
+  <si>
+    <t>Verner, Igor and Cuperman, Dan and Fang, Amy and Reitman, Michael and Romm, Tal and Balikin, Gali</t>
+  </si>
+  <si>
+    <t>Israel, US</t>
+  </si>
+  <si>
+    <t>Other, North America</t>
+  </si>
+  <si>
+    <t>Teaching Adaptive Robot Behaviors</t>
+  </si>
+  <si>
+    <t>-use RL: "main challenges is to reduce the experimentation time and the wear and tear on the robot"
+-"performing robot trials in a virtual environment allows experimental data to be generated faster, more easily, and in any desired quantity, thus significantly speed-up the learning process"
+--Exposing students to advanced concepts like machine learning, digital twins, and cloud robotics by engaging them in practical projects where robots learn new skills through reinforcement learning.</t>
+  </si>
+  <si>
+    <t>Human-supervised DT</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>The approach implements massive multi-parametric analysis (virtual testing) of weightlifting by the digital twin, batch offline simulation, to optimize reinforced learning of the physical robot.  
+- "for the weight of a given mass, test the balance of the virtual robot in its various postures over the range of possible bending angles at the hip, knee, and ankle joints. "</t>
+  </si>
+  <si>
+    <t>"In the next phase of the research, we will practically implement our approach in an outreach course and we anticipate that the evaluation of this experience will lead to the development of strategies for learning with learning robots."</t>
+  </si>
+  <si>
+    <t>Online Engineering &amp; Internet of Things</t>
+  </si>
+  <si>
+    <t>DT enpowered reinforcement learning scenario in which a humanoid robot learns to lift a weight of unknown mass through autonomous trial-and-error search</t>
+  </si>
+  <si>
+    <t>HSDT: "ThingWorx also receives and analyzes data from the simulator and sends recommendations for weightlifting posture to the robot upon request"
+- "When the physical robot has to lift a weight, it first measures the weight mass, and sends its value to the ThingWorx server. In response, the robot receives the values of the three angles suggested based on the simulation analysis. Then the robot executes the lifting using those values."</t>
+  </si>
+  <si>
+    <t>Yao2023</t>
+  </si>
+  <si>
+    <t>Cooperative Task Offloading and Service Caching for Digital Twin Edge Networks: A Graph Attention Multi-Agent Reinforcement Learning Approach</t>
+  </si>
+  <si>
+    <t>Yao, Zhixiu and Xia, Shichao and Li, Yun and Wu, Guangfu</t>
+  </si>
+  <si>
+    <t>Zhao2023</t>
+  </si>
+  <si>
+    <t>Cloud-Edge-Client Collaborative Learning in Digital Twin Empowered Mobile Networks</t>
+  </si>
+  <si>
+    <t>Zhao, Lindong and Ni, Shouxiang and Wu, Dan and Zhou, Liang</t>
+  </si>
+  <si>
+    <t>very bad paper</t>
+  </si>
+  <si>
+    <t>Vila2023</t>
+  </si>
+  <si>
+    <t>On the design of a network digital twin for the radio access network in 5G and beyond</t>
+  </si>
+  <si>
+    <t>Vila, Irene and Sallent, Oriol and Perez-Romero, Jordi</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>the complexity of 5G+ networks challenges the testing of configurations and algorithms</t>
+  </si>
+  <si>
+    <t>(cost-)efficiency in testing</t>
+  </si>
+  <si>
+    <t>Network Digital Twin</t>
+  </si>
+  <si>
+    <t>Manually built (explicit), Inferred (implicit)</t>
+  </si>
+  <si>
+    <t>scenario topology model, gNBs model, channel models, network models, UEs models</t>
+  </si>
+  <si>
+    <t>virtual training environment (states, rewards)</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>"Network Digital Twin: a high-fidelity digital mirror of a real network"
+policy is deployed to the real network after a while to test IRL</t>
+  </si>
+  <si>
+    <t>- Deng, J.; Zheng, Q.; Liu, G.; Bai, J.; Tian, K.; Sun, C.; Yan, Y.; Liu, Y. A Digital Twin Approach for Self-optimization of Mobile Networks. In Proceedings of the 2021 IEEE Wireless Communications and Networking Conference Workshops (WCNCW), Nanjing, China, 29 March–1 April 2021.
+- Naeem, F.; Kaddoum, G.; Tariq, M. Digital Twin-empowered Network Slicing in B5G Networks: Experience-driven approach. In Proceedings of the 2021 IEEE Globecom Workshops (GC Wkshps), Madrid, Spain, 7–11 December 2021.</t>
+  </si>
+  <si>
+    <t>Mozo2022a</t>
+  </si>
+  <si>
+    <t>B5GEMINI: AI-Driven Network Digital Twin</t>
+  </si>
+  <si>
+    <t>Mozo, Alberto and Karamchandani, Amit and G\'{o}mez-Canaval, Sandra and Sanz, Mario and Moreno, Jose Ignacio and Pastor, Antonio</t>
+  </si>
+  <si>
+    <t>Mozo2022b</t>
+  </si>
+  <si>
+    <t>general network management in wireless settings</t>
+  </si>
+  <si>
+    <t>enable AI for the management of 5G+ networks in various scenarios</t>
+  </si>
+  <si>
+    <t>Network topology, resources, etc</t>
+  </si>
+  <si>
+    <t>synthetic data generation</t>
+  </si>
+  <si>
+    <t>This is just a big vision paper without actual implementation. I will never understand why people publish such shallow work and why editors allow this. Obviously, this is MDPI...</t>
+  </si>
+  <si>
+    <t>Xia2021</t>
+  </si>
+  <si>
+    <t>A digital twin to train deep reinforcement learning agent for smart manufacturing plants: Environment, interfaces and intelligence</t>
+  </si>
+  <si>
+    <t>Xia, Kaishu and Sacco, Christopher and Kirkpatrick, Max and Saidy, Clint and Nguyen, Lam and Kircaliali, Anil and Harik, Ramy</t>
+  </si>
+  <si>
+    <t>intelligent scheduler,Digital Engine</t>
+  </si>
+  <si>
+    <t>-“direct process quality measurements are often unavailable or rare.”
+- “there remains gaps in the applicability of currently available engineering tools towards smart manufacturing with data-driven controls. Risks such as discrepancy between virtual and physical manufacturing, or out-of-sync communications caused by hardware latency, can be significant sources of model non-convergence, which leads to isolated, fragmented and stagnant data management."</t>
+  </si>
+  <si>
+    <t>CAD, kinematics</t>
+  </si>
+  <si>
+    <t>DRL,TL,DQN</t>
+  </si>
+  <si>
+    <t>Generate data for DQN</t>
+  </si>
+  <si>
+    <t>Trade-off between exploration and exploitation in Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>-"focus on applying this methodology on more diverse manufacturing tasks and material flows in Stage 2 platform (Fig. 17a), including collaborative assembly jobs, visual inspection, optimized rework, and continuous movement tasks."
+-"expand the research activities to develop a high-fidelity reference model and improve predictive capabilities of the digital twin. "</t>
+  </si>
+  <si>
+    <t>Journal of Manufacturing Systems</t>
   </si>
   <si>
     <t>Yang2024</t>
@@ -1824,10 +1830,13 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1846,13 +1855,10 @@
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2384,7 +2390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="21" t="s">
         <v>71</v>
       </c>
@@ -2929,7 +2935,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -2939,48 +2945,51 @@
         <v>154</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="F8" s="16">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="16"/>
+        <v>157</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="17" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="O8" s="17" t="s">
         <v>52</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="17" t="s">
         <v>92</v>
       </c>
+      <c r="R8" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="S8" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="U8" s="17" t="s">
         <v>58</v>
@@ -2989,7 +2998,7 @@
         <v>95</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="X8" s="17" t="s">
         <v>96</v>
@@ -2998,13 +3007,13 @@
         <v>90</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="AC8" s="17" t="s">
         <v>99</v>
@@ -3025,35 +3034,30 @@
         <v>0.5</v>
       </c>
       <c r="AI8" s="18">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" s="18">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AL8" s="19"/>
-      <c r="AM8" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN8" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" hidden="1">
+      <c r="AM8" s="29"/>
+    </row>
+    <row r="9">
       <c r="A9" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>44</v>
@@ -3062,7 +3066,7 @@
         <v>6.0</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -3084,7 +3088,7 @@
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AB9" s="23" t="s">
         <v>121</v>
@@ -3112,26 +3116,26 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="AK9" s="28"/>
+      <c r="AK9" s="30"/>
       <c r="AL9" s="25"/>
-      <c r="AM9" s="28"/>
+      <c r="AM9" s="30"/>
       <c r="AN9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="F10" s="16">
         <v>6.0</v>
@@ -3141,13 +3145,13 @@
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>50</v>
@@ -3157,31 +3161,28 @@
         <v>90</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="17" t="s">
-        <v>176</v>
-      </c>
       <c r="S10" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="V10" s="17" t="s">
         <v>95</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="X10" s="17" t="s">
         <v>96</v>
@@ -3190,10 +3191,10 @@
         <v>90</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AA10" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AB10" s="17" t="s">
         <v>135</v>
@@ -3211,60 +3212,60 @@
         <v>1.0</v>
       </c>
       <c r="AG10" s="18">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AH10" s="18">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AI10" s="18">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ10" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AK10" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL10" s="19"/>
       <c r="AM10" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN10" s="20" t="s">
-        <v>70</v>
+        <v>183</v>
+      </c>
+      <c r="AN10" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>182</v>
+      <c r="A11" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="F11" s="16">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="16"/>
+        <v>157</v>
+      </c>
+      <c r="H11" s="19"/>
       <c r="I11" s="16" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>50</v>
@@ -3277,19 +3278,16 @@
         <v>52</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R11" s="17" t="s">
-        <v>190</v>
-      </c>
       <c r="S11" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>58</v>
@@ -3298,28 +3296,28 @@
         <v>95</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="X11" s="17" t="s">
         <v>96</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="AA11" s="17" t="s">
         <v>194</v>
       </c>
       <c r="AB11" s="17" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="AC11" s="17" t="s">
         <v>195</v>
       </c>
       <c r="AD11" s="17">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="AE11" s="17" t="s">
         <v>67</v>
@@ -3328,39 +3326,34 @@
         <v>0.5</v>
       </c>
       <c r="AG11" s="18">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AH11" s="18">
         <v>1.0</v>
       </c>
       <c r="AI11" s="18">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ11" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="29"/>
       <c r="AL11" s="19"/>
-      <c r="AM11" s="20" t="s">
+      <c r="AM11" s="29"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AN11" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" hidden="1">
-      <c r="A12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>44</v>
@@ -3373,7 +3366,7 @@
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -3393,13 +3386,13 @@
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
       <c r="AA12" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB12" s="23" t="s">
         <v>65</v>
       </c>
       <c r="AC12" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD12" s="23">
         <v>2021.0</v>
@@ -3423,27 +3416,27 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AK12" s="30" t="s">
+      <c r="AK12" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL12" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="AL12" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="AM12" s="25"/>
       <c r="AN12" s="25"/>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>209</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>108</v>
@@ -3456,10 +3449,10 @@
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="23" t="s">
@@ -3470,14 +3463,14 @@
         <v>90</v>
       </c>
       <c r="O13" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>56</v>
@@ -3490,13 +3483,13 @@
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
       <c r="AA13" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB13" s="23" t="s">
         <v>121</v>
       </c>
       <c r="AC13" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD13" s="23">
         <v>2023.0</v>
@@ -3523,102 +3516,102 @@
       <c r="AK13" s="26"/>
       <c r="AL13" s="25"/>
       <c r="AM13" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN13" s="25"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="AN13" s="25"/>
-    </row>
-    <row r="14" hidden="1">
-      <c r="A14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="E14" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="F14" s="32">
+        <v>27.0</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="31">
-        <v>27.0</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31" t="s">
+      <c r="J14" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="K14" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="32" t="s">
+      <c r="AB14" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC14" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="AB14" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC14" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD14" s="32">
+      <c r="AD14" s="33">
         <v>2024.0</v>
       </c>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="35">
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="36">
         <v>0.0</v>
       </c>
-      <c r="AG14" s="35">
+      <c r="AG14" s="36">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="35">
+      <c r="AH14" s="36">
         <v>0.5</v>
       </c>
-      <c r="AI14" s="35">
+      <c r="AI14" s="36">
         <v>0.5</v>
       </c>
-      <c r="AJ14" s="35">
+      <c r="AJ14" s="36">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AK14" s="35" t="s">
+      <c r="AK14" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-    </row>
-    <row r="15" hidden="1">
-      <c r="A15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>141</v>
@@ -3634,7 +3627,7 @@
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -3654,13 +3647,13 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
       <c r="AA15" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB15" s="23" t="s">
         <v>121</v>
       </c>
       <c r="AC15" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD15" s="23">
         <v>2022.0</v>
@@ -3683,98 +3676,98 @@
         <v>1</v>
       </c>
       <c r="AK15" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="25"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="16">
+        <v>18.0</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="16">
-        <v>36.0</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>242</v>
-      </c>
       <c r="L16" s="17" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="17" t="s">
         <v>90</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="S16" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="V16" s="17" t="s">
         <v>95</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="X16" s="17" t="s">
         <v>96</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="AA16" s="17" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="AC16" s="17" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="AD16" s="17">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="AE16" s="17" t="s">
         <v>67</v>
@@ -3783,36 +3776,31 @@
         <v>1.0</v>
       </c>
       <c r="AG16" s="18">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH16" s="18">
         <v>1.0</v>
       </c>
       <c r="AI16" s="18">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AJ16" s="18">
         <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="AK16" s="18" t="s">
-        <v>248</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AK16" s="29"/>
       <c r="AL16" s="19"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="AM16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>126</v>
@@ -3821,20 +3809,20 @@
         <v>126</v>
       </c>
       <c r="F17" s="16">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>145</v>
@@ -3844,25 +3832,25 @@
         <v>90</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>92</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S17" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="V17" s="17" t="s">
         <v>95</v>
@@ -3874,28 +3862,28 @@
         <v>96</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>257</v>
+        <v>90</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>258</v>
+        <v>90</v>
       </c>
       <c r="AA17" s="17" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AB17" s="17" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="AC17" s="17" t="s">
         <v>99</v>
       </c>
       <c r="AD17" s="17">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="AE17" s="17" t="s">
         <v>67</v>
       </c>
       <c r="AF17" s="18">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AG17" s="18">
         <v>0.0</v>
@@ -3904,18 +3892,18 @@
         <v>1.0</v>
       </c>
       <c r="AI17" s="18">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AJ17" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AK17" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AN17" s="20" t="s">
         <v>70</v>
@@ -3923,35 +3911,35 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="F18" s="16">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>50</v>
@@ -3961,22 +3949,22 @@
         <v>90</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c r="Q18" s="17" t="s">
         <v>92</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S18" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U18" s="17" t="s">
         <v>58</v>
@@ -3991,22 +3979,22 @@
         <v>96</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AA18" s="17" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="AB18" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="AD18" s="17">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="AE18" s="17" t="s">
         <v>67</v>
@@ -4027,40 +4015,40 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AK18" s="18" t="s">
-        <v>271</v>
-      </c>
+      <c r="AK18" s="29"/>
       <c r="AL18" s="19"/>
-      <c r="AM18" s="20"/>
+      <c r="AM18" s="20" t="s">
+        <v>270</v>
+      </c>
       <c r="AN18" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>275</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F19" s="16">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>276</v>
@@ -4069,55 +4057,56 @@
         <v>277</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="16" t="s">
         <v>278</v>
       </c>
+      <c r="M19" s="16"/>
       <c r="N19" s="17" t="s">
         <v>90</v>
       </c>
       <c r="O19" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="P19" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="P19" s="17" t="s">
-        <v>280</v>
-      </c>
       <c r="Q19" s="17" t="s">
-        <v>92</v>
+        <v>54</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="S19" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T19" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="U19" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>95</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="X19" s="17" t="s">
         <v>96</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="Z19" s="16" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="AB19" s="17" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="AC19" s="17" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AD19" s="17">
         <v>2023.0</v>
@@ -4129,28 +4118,28 @@
         <v>1.0</v>
       </c>
       <c r="AG19" s="18">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AH19" s="18">
         <v>1.0</v>
       </c>
       <c r="AI19" s="18">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ19" s="18">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AK19" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL19" s="19"/>
-      <c r="AM19" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="AN19" s="36"/>
-    </row>
-    <row r="20" hidden="1">
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="21" t="s">
         <v>285</v>
       </c>
@@ -4229,7 +4218,7 @@
       <c r="AM20" s="25"/>
       <c r="AN20" s="25"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="21" t="s">
         <v>291</v>
       </c>
@@ -4240,7 +4229,7 @@
         <v>293</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>44</v>
@@ -4249,17 +4238,17 @@
         <v>6.0</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="K21" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>297</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>145</v>
@@ -4269,20 +4258,20 @@
         <v>90</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S21" s="23" t="s">
         <v>56</v>
       </c>
       <c r="T21" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U21" s="23" t="s">
         <v>58</v>
@@ -4297,14 +4286,16 @@
         <v>96</v>
       </c>
       <c r="Y21" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z21" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="Z21" s="22" t="s">
-        <v>302</v>
       </c>
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
+      <c r="AC21" s="23" t="s">
+        <v>302</v>
+      </c>
       <c r="AD21" s="23">
         <v>2020.0</v>
       </c>
@@ -4333,11 +4324,11 @@
       <c r="AL21" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="AM21" s="28"/>
+      <c r="AM21" s="30"/>
       <c r="AN21" s="25"/>
     </row>
     <row r="22">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="15" t="s">
         <v>305</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -4353,45 +4344,45 @@
         <v>126</v>
       </c>
       <c r="F22" s="16">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H22" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="H22" s="16"/>
       <c r="I22" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>310</v>
-      </c>
       <c r="L22" s="17" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="17" t="s">
         <v>90</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="17" t="s">
         <v>92</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S22" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U22" s="17" t="s">
         <v>58</v>
@@ -4406,13 +4397,13 @@
         <v>96</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="AA22" s="17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AB22" s="17" t="s">
         <v>65</v>
@@ -4427,7 +4418,7 @@
         <v>67</v>
       </c>
       <c r="AF22" s="18">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AG22" s="18">
         <v>0.0</v>
@@ -4435,46 +4426,55 @@
       <c r="AH22" s="18">
         <v>1.0</v>
       </c>
-      <c r="AI22" s="18"/>
+      <c r="AI22" s="18">
+        <v>0.5</v>
+      </c>
       <c r="AJ22" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AK22" s="29"/>
+      <c r="AK22" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="AL22" s="19"/>
-      <c r="AM22" s="29"/>
-    </row>
-    <row r="23" hidden="1">
+      <c r="AM22" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN22" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F23" s="22">
         <v>5.0</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="22" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
@@ -4482,18 +4482,18 @@
         <v>90</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P23" s="25"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="S23" s="23" t="s">
         <v>56</v>
       </c>
       <c r="T23" s="23" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="U23" s="23" t="s">
         <v>58</v>
@@ -4515,7 +4515,9 @@
       </c>
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
+      <c r="AC23" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="AD23" s="23">
         <v>2021.0</v>
       </c>
@@ -4539,62 +4541,65 @@
         <v>1.5</v>
       </c>
       <c r="AK23" s="26" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL23" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="AM23" s="28"/>
+        <v>328</v>
+      </c>
+      <c r="AM23" s="30"/>
       <c r="AN23" s="25"/>
     </row>
     <row r="24">
-      <c r="A24" s="38" t="s">
-        <v>326</v>
+      <c r="A24" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>329</v>
+        <v>126</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="F24" s="16">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H24" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>333</v>
+        <v>50</v>
       </c>
       <c r="M24" s="16"/>
       <c r="N24" s="17" t="s">
         <v>90</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="17" t="s">
         <v>92</v>
       </c>
+      <c r="R24" s="17" t="s">
+        <v>334</v>
+      </c>
       <c r="S24" s="17" t="s">
         <v>56</v>
       </c>
@@ -4605,46 +4610,46 @@
         <v>58</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA24" s="17" t="s">
-        <v>337</v>
+        <v>149</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="AC24" s="17" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="AD24" s="17">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="AE24" s="17" t="s">
         <v>67</v>
       </c>
       <c r="AF24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AG24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AH24" s="18">
         <v>1.0</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AI24" s="18">
         <v>1.0</v>
-      </c>
-      <c r="AH24" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AI24" s="18">
-        <v>0.5</v>
       </c>
       <c r="AJ24" s="18">
         <f t="shared" si="1"/>
@@ -4653,67 +4658,68 @@
       <c r="AK24" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="AL24" s="16" t="s">
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="AM24" s="29"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="38" t="s">
+      <c r="B25" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>342</v>
-      </c>
       <c r="D25" s="16" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F25" s="16">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="16" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="J25" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="16"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="17" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="17" t="s">
         <v>92</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="S25" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>58</v>
@@ -4722,61 +4728,61 @@
         <v>95</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="X25" s="17" t="s">
         <v>96</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>349</v>
+        <v>90</v>
       </c>
       <c r="Z25" s="16" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="AA25" s="17" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="AB25" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AC25" s="17" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="AD25" s="17">
-        <v>2021.0</v>
+        <v>2023.0</v>
       </c>
       <c r="AE25" s="17" t="s">
         <v>67</v>
       </c>
       <c r="AF25" s="18">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AG25" s="18">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AH25" s="18">
         <v>1.0</v>
       </c>
       <c r="AI25" s="18">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ25" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="29"/>
       <c r="AL25" s="19"/>
       <c r="AM25" s="29"/>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="23" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>126</v>
@@ -4788,30 +4794,30 @@
         <v>15.0</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="22" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>145</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
@@ -4819,7 +4825,7 @@
         <v>56</v>
       </c>
       <c r="T26" s="23" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="U26" s="23" t="s">
         <v>58</v>
@@ -4831,7 +4837,9 @@
       <c r="Z26" s="24"/>
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
+      <c r="AC26" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="AD26" s="23">
         <v>2024.0</v>
       </c>
@@ -4852,67 +4860,64 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK26" s="28"/>
+      <c r="AK26" s="30"/>
       <c r="AL26" s="24"/>
-      <c r="AM26" s="28"/>
+      <c r="AM26" s="30"/>
       <c r="AN26" s="25"/>
     </row>
     <row r="27">
-      <c r="A27" s="38" t="s">
-        <v>360</v>
+      <c r="A27" s="28" t="s">
+        <v>354</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="F27" s="16">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="16" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>50</v>
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="17" t="s">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="O27" s="17" t="s">
         <v>52</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="S27" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="U27" s="17" t="s">
         <v>58</v>
@@ -4921,25 +4926,25 @@
         <v>95</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="X27" s="17" t="s">
-        <v>96</v>
+        <v>364</v>
       </c>
       <c r="Y27" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Z27" s="16" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="AA27" s="17" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="AB27" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AD27" s="17">
         <v>2023.0</v>
@@ -4948,36 +4953,36 @@
         <v>67</v>
       </c>
       <c r="AF27" s="18">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AG27" s="18">
         <v>0.5</v>
       </c>
       <c r="AH27" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI27" s="18">
         <v>0.5</v>
-      </c>
-      <c r="AI27" s="18">
-        <v>0.0</v>
       </c>
       <c r="AJ27" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AK27" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AL27" s="19"/>
       <c r="AM27" s="29"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="23" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>126</v>
@@ -4989,17 +4994,17 @@
         <v>8.0</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
@@ -5007,18 +5012,18 @@
         <v>90</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P28" s="25"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="S28" s="23" t="s">
         <v>56</v>
       </c>
       <c r="T28" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="U28" s="23" t="s">
         <v>58</v>
@@ -5063,32 +5068,32 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK28" s="28"/>
+      <c r="AK28" s="30"/>
       <c r="AL28" s="24"/>
-      <c r="AM28" s="28"/>
+      <c r="AM28" s="30"/>
       <c r="AN28" s="25"/>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="E29" s="22" t="s">
         <v>380</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>383</v>
       </c>
       <c r="F29" s="22">
         <v>14.0</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5111,7 +5116,9 @@
       <c r="Z29" s="24"/>
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
+      <c r="AC29" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="AD29" s="23">
         <v>2023.0</v>
       </c>
@@ -5130,52 +5137,52 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK29" s="28"/>
+      <c r="AK29" s="30"/>
       <c r="AL29" s="24"/>
-      <c r="AM29" s="28"/>
+      <c r="AM29" s="30"/>
       <c r="AN29" s="25"/>
     </row>
     <row r="30">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>126</v>
-      </c>
       <c r="F30" s="16">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="16" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="J30" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="L30" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="L30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" s="19"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="17" t="s">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="P30" s="17" t="s">
         <v>389</v>
@@ -5183,9 +5190,6 @@
       <c r="Q30" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R30" s="17" t="s">
-        <v>368</v>
-      </c>
       <c r="S30" s="17" t="s">
         <v>56</v>
       </c>
@@ -5196,64 +5200,68 @@
         <v>58</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="X30" s="17" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="Y30" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>90</v>
+        <v>391</v>
       </c>
       <c r="AA30" s="17" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
       <c r="AB30" s="17" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="AD30" s="17">
-        <v>2023.0</v>
+        <v>2018.0</v>
       </c>
       <c r="AE30" s="17" t="s">
         <v>67</v>
       </c>
       <c r="AF30" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AG30" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AH30" s="18">
         <v>0.5</v>
       </c>
-      <c r="AG30" s="18">
+      <c r="AI30" s="18">
         <v>0.5</v>
-      </c>
-      <c r="AH30" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="AI30" s="18">
-        <v>0.0</v>
       </c>
       <c r="AJ30" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AK30" s="29"/>
-      <c r="AL30" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="AK30" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL30" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="AM30" s="29"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="23" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>126</v>
@@ -5265,7 +5273,7 @@
         <v>13.0</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5288,7 +5296,9 @@
       <c r="Z31" s="24"/>
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
+      <c r="AC31" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="AD31" s="23">
         <v>2023.0</v>
       </c>
@@ -5307,20 +5317,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="28"/>
+      <c r="AK31" s="30"/>
       <c r="AL31" s="24"/>
-      <c r="AM31" s="28"/>
+      <c r="AM31" s="30"/>
       <c r="AN31" s="25"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="23" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>126</v>
@@ -5332,7 +5342,7 @@
         <v>13.0</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="22" t="s">
@@ -5385,56 +5395,58 @@
         <v>0.5</v>
       </c>
       <c r="AK32" s="26" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AL32" s="24"/>
-      <c r="AM32" s="28"/>
+      <c r="AM32" s="30"/>
       <c r="AN32" s="25"/>
     </row>
     <row r="33">
-      <c r="A33" s="38" t="s">
-        <v>398</v>
+      <c r="A33" s="15" t="s">
+        <v>402</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>402</v>
+        <v>44</v>
       </c>
       <c r="F33" s="16">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H33" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="H33" s="16"/>
       <c r="I33" s="16" t="s">
         <v>87</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L33" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="16"/>
+      <c r="M33" s="16" t="s">
+        <v>408</v>
+      </c>
       <c r="N33" s="17" t="s">
         <v>90</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>52</v>
+        <v>409</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q33" s="17" t="s">
         <v>92</v>
@@ -5443,7 +5455,7 @@
         <v>56</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="U33" s="17" t="s">
         <v>58</v>
@@ -5452,64 +5464,69 @@
         <v>95</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="X33" s="17" t="s">
         <v>96</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>407</v>
+        <v>90</v>
       </c>
       <c r="Z33" s="16" t="s">
         <v>90</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AB33" s="17" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="AC33" s="17" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AD33" s="17">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="AE33" s="17" t="s">
         <v>67</v>
       </c>
       <c r="AF33" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AG33" s="18">
         <v>0.5</v>
-      </c>
-      <c r="AG33" s="18">
-        <v>0.0</v>
       </c>
       <c r="AH33" s="18">
         <v>1.0</v>
       </c>
       <c r="AI33" s="18">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AJ33" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AK33" s="29"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK33" s="18" t="s">
+        <v>413</v>
+      </c>
       <c r="AL33" s="19"/>
-      <c r="AM33" s="29"/>
-    </row>
-    <row r="34" hidden="1">
+      <c r="AM33" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN33" s="38"/>
+    </row>
+    <row r="34">
       <c r="A34" s="23" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>44</v>
@@ -5518,25 +5535,25 @@
         <v>30.0</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>87</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L34" s="23" t="s">
         <v>50</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>278</v>
+        <v>408</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>90</v>
@@ -5545,7 +5562,7 @@
         <v>52</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q34" s="23"/>
       <c r="R34" s="25"/>
@@ -5553,7 +5570,7 @@
         <v>56</v>
       </c>
       <c r="T34" s="23" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="U34" s="23"/>
       <c r="V34" s="23"/>
@@ -5562,7 +5579,7 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
       <c r="AA34" s="23" t="s">
-        <v>282</v>
+        <v>412</v>
       </c>
       <c r="AB34" s="23" t="s">
         <v>65</v>
@@ -5591,65 +5608,68 @@
         <v>0</v>
       </c>
       <c r="AK34" s="26" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AL34" s="24"/>
-      <c r="AM34" s="28"/>
+      <c r="AM34" s="30"/>
       <c r="AN34" s="25"/>
     </row>
     <row r="35">
-      <c r="A35" s="38" t="s">
-        <v>419</v>
+      <c r="A35" s="28" t="s">
+        <v>424</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>422</v>
+        <v>208</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F35" s="16">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="16" t="s">
-        <v>423</v>
+        <v>47</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L35" s="17" t="s">
         <v>50</v>
       </c>
       <c r="M35" s="16"/>
       <c r="N35" s="17" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="O35" s="17" t="s">
         <v>52</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>427</v>
+        <v>92</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>430</v>
       </c>
       <c r="S35" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="U35" s="17" t="s">
         <v>58</v>
@@ -5661,60 +5681,58 @@
         <v>118</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>429</v>
+        <v>96</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="Z35" s="16" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AA35" s="17" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AB35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AC35" s="17" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AD35" s="17">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="AE35" s="17" t="s">
         <v>67</v>
       </c>
       <c r="AF35" s="18">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AG35" s="18">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AH35" s="18">
         <v>1.0</v>
       </c>
       <c r="AI35" s="18">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AJ35" s="18">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="AK35" s="18" t="s">
-        <v>432</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AK35" s="29"/>
       <c r="AL35" s="19"/>
       <c r="AM35" s="29"/>
     </row>
     <row r="36">
-      <c r="A36" s="38" t="s">
-        <v>433</v>
+      <c r="A36" s="28" t="s">
+        <v>435</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>126</v>
@@ -5726,45 +5744,45 @@
         <v>14.0</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="16" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="17" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="O36" s="17" t="s">
         <v>52</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q36" s="17" t="s">
         <v>92</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="S36" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>369</v>
+        <v>164</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="V36" s="17" t="s">
         <v>95</v>
@@ -5782,13 +5800,13 @@
         <v>90</v>
       </c>
       <c r="AA36" s="17" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AB36" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="AD36" s="17">
         <v>2024.0</v>
@@ -5813,20 +5831,20 @@
         <v>2</v>
       </c>
       <c r="AK36" s="18" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AL36" s="19"/>
       <c r="AM36" s="29"/>
     </row>
     <row r="37">
-      <c r="A37" s="38" t="s">
-        <v>442</v>
+      <c r="A37" s="28" t="s">
+        <v>444</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>126</v>
@@ -5838,30 +5856,30 @@
         <v>12.0</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="16" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L37" s="17" t="s">
         <v>50</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="17" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="O37" s="17" t="s">
         <v>52</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q37" s="17" t="s">
         <v>92</v>
@@ -5873,7 +5891,7 @@
         <v>56</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>369</v>
+        <v>164</v>
       </c>
       <c r="U37" s="17" t="s">
         <v>58</v>
@@ -5888,19 +5906,19 @@
         <v>96</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Z37" s="16" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA37" s="17" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="AB37" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="AD37" s="17">
         <v>2024.0</v>
@@ -5928,15 +5946,15 @@
       <c r="AL37" s="19"/>
       <c r="AM37" s="29"/>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="23" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>126</v>
@@ -5948,17 +5966,17 @@
         <v>11.0</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="22" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L38" s="23" t="s">
         <v>50</v>
@@ -5968,10 +5986,10 @@
         <v>90</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
@@ -5981,13 +5999,15 @@
       <c r="V38" s="23"/>
       <c r="W38" s="23"/>
       <c r="X38" s="23" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
+      <c r="AC38" s="23" t="s">
+        <v>202</v>
+      </c>
       <c r="AD38" s="23">
         <v>2022.0</v>
       </c>
@@ -6007,23 +6027,23 @@
         <v>0.5</v>
       </c>
       <c r="AK38" s="26" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL38" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="AM38" s="28"/>
+        <v>460</v>
+      </c>
+      <c r="AM38" s="30"/>
       <c r="AN38" s="25"/>
     </row>
     <row r="39">
-      <c r="A39" s="38" t="s">
-        <v>459</v>
+      <c r="A39" s="28" t="s">
+        <v>461</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>126</v>
@@ -6035,17 +6055,17 @@
         <v>15.0</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="16" t="s">
         <v>87</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L39" s="17" t="s">
         <v>50</v>
@@ -6055,22 +6075,22 @@
         <v>90</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q39" s="17" t="s">
         <v>92</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="S39" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>369</v>
+        <v>164</v>
       </c>
       <c r="U39" s="17" t="s">
         <v>58</v>
@@ -6091,13 +6111,13 @@
         <v>90</v>
       </c>
       <c r="AA39" s="17" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AB39" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AC39" s="17" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AD39" s="17">
         <v>2023.0</v>
@@ -27180,16 +27200,7 @@
       <c r="AM996" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="$AJ$1:$AJ$996">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="2.5"/>
-        <filter val="3.5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$AJ$1:$AJ$996"/>
   <conditionalFormatting sqref="AJ2:AJ39">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>2</formula>
@@ -27206,7 +27217,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O2:O18 O20:O39">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O2:O32 O34:O39">
       <formula1>"Manually built (explicit),Inferred (implicit),Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X2:X39">
@@ -27218,10 +27229,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2 I4:I8 I10:I11 I16:I19 I22 I24:I25 I27 I30 I32:I37 I39">
       <formula1>"Manufacturing,Networks - Wireless,Networks - Edge computing,Networks - General,Robotics and AVs,Energy systems,Agriculture,Urban design"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L39">
-      <formula1>"Digital shadow,Human-supervised DT,Human-actuated DT,Autonomous DT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2 Q4:Q8 Q10:Q11 Q16:Q19 Q22 Q24:Q25 Q27 Q30 Q32:Q34 Q36:Q37 Q39">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2 Q4:Q8 Q10:Q11 Q16:Q19 Q22 Q24:Q25 Q30 Q32:Q37 Q39">
       <formula1>"RL,NN,TL"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB2:AB20 AB22 AB24:AB25 AB27:AB28 AB30 AB32:AB37 AB39">
@@ -27241,6 +27249,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE2:AE39">
       <formula1>"Conceptual,Technical"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L39">
+      <formula1>"Digital shadow,Human-supervised DT,Human-actuated DT,Autonomous DT,Digital model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="U2:U39">
       <formula1>"Attached DT,Detached (Temp) DT,Detached (Perm) DT,Other (explain)"</formula1>
@@ -27272,7 +27283,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>40</v>
@@ -27280,18 +27291,18 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4">
@@ -27321,19 +27332,19 @@
     <row r="8">
       <c r="A8" s="17"/>
       <c r="B8" s="27" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17"/>
       <c r="B9" s="27" t="s">
-        <v>360</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="39"/>
       <c r="B10" s="40" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -27345,143 +27356,143 @@
     <row r="12">
       <c r="A12" s="17"/>
       <c r="B12" s="27" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39"/>
       <c r="B13" s="40" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17"/>
       <c r="B14" s="27" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17"/>
       <c r="B15" s="27" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17"/>
       <c r="B16" s="27" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17"/>
       <c r="B17" s="27" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="39"/>
       <c r="B18" s="40" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17"/>
       <c r="B21" s="27" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="39"/>
       <c r="B22" s="40" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="39"/>
       <c r="B23" s="40" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="39"/>
       <c r="B24" s="40" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="17"/>
       <c r="B25" s="27" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="17"/>
       <c r="B26" s="27" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="17"/>
       <c r="B27" s="27" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>272</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="17"/>
       <c r="B29" s="27" t="s">
-        <v>340</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="17"/>
       <c r="B30" s="27" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="17"/>
       <c r="B31" s="27" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="17"/>
       <c r="B32" s="27" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="17"/>
       <c r="B33" s="27" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="17"/>
       <c r="B34" s="27" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
